--- a/experiment/output/results/VLCS/CORAL/SDG/1_2_3.xlsx
+++ b/experiment/output/results/VLCS/CORAL/SDG/1_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250128_12-35-47_resnet50_EVE</t>
+          <t>250215_13-13-14_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>57.472</v>
+        <v>57.625</v>
       </c>
       <c r="E2" t="n">
-        <v>57.472</v>
+        <v>57.625</v>
       </c>
       <c r="F2" t="n">
-        <v>27.441</v>
+        <v>50.854</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,23 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250127_04-00-17_resnet50_adam</t>
+          <t>250215_17-14-40_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>40.087</v>
+        <v>52.362</v>
       </c>
       <c r="E3" t="n">
-        <v>33.72</v>
+        <v>44.57</v>
       </c>
       <c r="F3" t="n">
-        <v>23.221</v>
+        <v>25.038</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -552,22 +552,310 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>250215_18-29-03_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>55.98</v>
+      </c>
+      <c r="E4" t="n">
+        <v>54.985</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54.919</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250128_12-35-47_resnet50_EVE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>57.472</v>
+      </c>
+      <c r="E5" t="n">
+        <v>57.472</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.441</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250215_15-49-59_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>54.088</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>52.748</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250215_19-49-35_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>45.636</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45.636</v>
+      </c>
+      <c r="F7" t="n">
+        <v>43.684</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250127_04-00-17_resnet50_adam</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>40.087</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33.72</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23.221</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250215_21-04-04_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>53.806</v>
+      </c>
+      <c r="E9" t="n">
+        <v>51.422</v>
+      </c>
+      <c r="F9" t="n">
+        <v>52.913</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250215_22-25-41_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54.053</v>
+      </c>
+      <c r="F10" t="n">
+        <v>53.442</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250215_11-56-26_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>58.681</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.711</v>
+      </c>
+      <c r="F11" t="n">
+        <v>55.334</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250215_14-33-55_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>54.553</v>
+      </c>
+      <c r="E12" t="n">
+        <v>52.511</v>
+      </c>
+      <c r="F12" t="n">
+        <v>52.248</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1_2_3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>250126_21-53-21_resnet50_sgd</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D13" t="n">
         <v>48.549</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E13" t="n">
         <v>46.251</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F13" t="n">
         <v>48.549</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/experiment/output/results/VLCS/CORAL/SDG/1_2_3.xlsx
+++ b/experiment/output/results/VLCS/CORAL/SDG/1_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,23 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250215_17-14-40_resnet50_GENIE</t>
+          <t>250127_04-00-17_resnet50_adam</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52.362</v>
+        <v>40.087</v>
       </c>
       <c r="E3" t="n">
-        <v>44.57</v>
+        <v>33.72</v>
       </c>
       <c r="F3" t="n">
-        <v>25.038</v>
+        <v>23.221</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -552,310 +552,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>250215_18-29-03_resnet50_GENIE</t>
+          <t>250126_21-53-21_resnet50_sgd</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55.98</v>
+        <v>48.549</v>
       </c>
       <c r="E4" t="n">
-        <v>54.985</v>
+        <v>46.251</v>
       </c>
       <c r="F4" t="n">
-        <v>54.919</v>
+        <v>48.549</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250128_12-35-47_resnet50_EVE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>57.472</v>
-      </c>
-      <c r="E5" t="n">
-        <v>57.472</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27.441</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250215_15-49-59_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>54.088</v>
-      </c>
-      <c r="E6" t="n">
-        <v>52.174</v>
-      </c>
-      <c r="F6" t="n">
-        <v>52.748</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>250215_19-49-35_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>45.636</v>
-      </c>
-      <c r="E7" t="n">
-        <v>45.636</v>
-      </c>
-      <c r="F7" t="n">
-        <v>43.684</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>250127_04-00-17_resnet50_adam</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>40.087</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33.72</v>
-      </c>
-      <c r="F8" t="n">
-        <v>23.221</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>250215_21-04-04_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>53.806</v>
-      </c>
-      <c r="E9" t="n">
-        <v>51.422</v>
-      </c>
-      <c r="F9" t="n">
-        <v>52.913</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>250215_22-25-41_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>54.053</v>
-      </c>
-      <c r="F10" t="n">
-        <v>53.442</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>250215_11-56-26_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>58.681</v>
-      </c>
-      <c r="E11" t="n">
-        <v>52.711</v>
-      </c>
-      <c r="F11" t="n">
-        <v>55.334</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>250215_14-33-55_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>54.553</v>
-      </c>
-      <c r="E12" t="n">
-        <v>52.511</v>
-      </c>
-      <c r="F12" t="n">
-        <v>52.248</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1_2_3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>250126_21-53-21_resnet50_sgd</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>48.549</v>
-      </c>
-      <c r="E13" t="n">
-        <v>46.251</v>
-      </c>
-      <c r="F13" t="n">
-        <v>48.549</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
